--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.67446</v>
+        <v>0.3056103333333333</v>
       </c>
       <c r="H2">
-        <v>17.02338</v>
+        <v>0.916831</v>
       </c>
       <c r="I2">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="J2">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.39487933333333</v>
+        <v>0.9317853333333334</v>
       </c>
       <c r="N2">
-        <v>43.184638</v>
+        <v>2.795356</v>
       </c>
       <c r="O2">
-        <v>0.6893176795959761</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="P2">
-        <v>0.6893176795959762</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="Q2">
-        <v>81.68316698182667</v>
+        <v>0.2847632263151111</v>
       </c>
       <c r="R2">
-        <v>735.14850283644</v>
+        <v>2.562869036836</v>
       </c>
       <c r="S2">
-        <v>0.1695190983656985</v>
+        <v>0.002167677892008134</v>
       </c>
       <c r="T2">
-        <v>0.1695190983656985</v>
+        <v>0.002167677892008134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.67446</v>
+        <v>0.3056103333333333</v>
       </c>
       <c r="H3">
-        <v>17.02338</v>
+        <v>0.916831</v>
       </c>
       <c r="I3">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="J3">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.578157</v>
       </c>
       <c r="O3">
-        <v>0.264622264871545</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="P3">
-        <v>0.2646222648715451</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="Q3">
-        <v>31.35736292340667</v>
+        <v>1.688818695607444</v>
       </c>
       <c r="R3">
-        <v>282.21626631066</v>
+        <v>15.199368260467</v>
       </c>
       <c r="S3">
-        <v>0.06507671147330199</v>
+        <v>0.01285564501234901</v>
       </c>
       <c r="T3">
-        <v>0.06507671147330202</v>
+        <v>0.01285564501234901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.67446</v>
+        <v>0.3056103333333333</v>
       </c>
       <c r="H4">
-        <v>17.02338</v>
+        <v>0.916831</v>
       </c>
       <c r="I4">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="J4">
-        <v>0.245923038656222</v>
+        <v>0.01726097181671177</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9618626666666668</v>
+        <v>0.9618626666666666</v>
       </c>
       <c r="N4">
         <v>2.885588</v>
       </c>
       <c r="O4">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="P4">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="Q4">
-        <v>5.458051227493334</v>
+        <v>0.2939551701808888</v>
       </c>
       <c r="R4">
-        <v>49.12246104744001</v>
+        <v>2.645596531628</v>
       </c>
       <c r="S4">
-        <v>0.01132722881722151</v>
+        <v>0.002237648912354622</v>
       </c>
       <c r="T4">
-        <v>0.01132722881722152</v>
+        <v>0.002237648912354622</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>44.794501</v>
       </c>
       <c r="I5">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088308</v>
       </c>
       <c r="J5">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088307</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.39487933333333</v>
+        <v>0.9317853333333334</v>
       </c>
       <c r="N5">
-        <v>43.184638</v>
+        <v>2.795356</v>
       </c>
       <c r="O5">
-        <v>0.6893176795959761</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="P5">
-        <v>0.6893176795959762</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="Q5">
-        <v>214.9371455639598</v>
+        <v>13.91295301526178</v>
       </c>
       <c r="R5">
-        <v>1934.434310075638</v>
+        <v>125.216577137356</v>
       </c>
       <c r="S5">
-        <v>0.4460643785935214</v>
+        <v>0.1059083402516235</v>
       </c>
       <c r="T5">
-        <v>0.4460643785935214</v>
+        <v>0.1059083402516235</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>44.794501</v>
       </c>
       <c r="I6">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088308</v>
       </c>
       <c r="J6">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088307</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.578157</v>
       </c>
       <c r="O6">
-        <v>0.264622264871545</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="P6">
-        <v>0.2646222648715451</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="Q6">
         <v>82.5122522571841</v>
@@ -818,10 +818,10 @@
         <v>742.610270314657</v>
       </c>
       <c r="S6">
-        <v>0.1712397195602482</v>
+        <v>0.6281007114302559</v>
       </c>
       <c r="T6">
-        <v>0.1712397195602482</v>
+        <v>0.6281007114302558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>44.794501</v>
       </c>
       <c r="I7">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088308</v>
       </c>
       <c r="J7">
-        <v>0.647110021688359</v>
+        <v>0.8433360339088307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9618626666666668</v>
+        <v>0.9618626666666666</v>
       </c>
       <c r="N7">
         <v>2.885588</v>
       </c>
       <c r="O7">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="P7">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="Q7">
         <v>14.36205272795422</v>
@@ -880,10 +880,10 @@
         <v>129.258474551588</v>
       </c>
       <c r="S7">
-        <v>0.02980592353458936</v>
+        <v>0.1093269822269513</v>
       </c>
       <c r="T7">
-        <v>0.02980592353458937</v>
+        <v>0.1093269822269513</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>7.404507</v>
       </c>
       <c r="I8">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="J8">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.39487933333333</v>
+        <v>0.9317853333333334</v>
       </c>
       <c r="N8">
-        <v>43.184638</v>
+        <v>2.795356</v>
       </c>
       <c r="O8">
-        <v>0.6893176795959761</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="P8">
-        <v>0.6893176795959762</v>
+        <v>0.1255826100074751</v>
       </c>
       <c r="Q8">
-        <v>35.528994929274</v>
+        <v>2.299803674388</v>
       </c>
       <c r="R8">
-        <v>319.760954363466</v>
+        <v>20.698233069492</v>
       </c>
       <c r="S8">
-        <v>0.07373420263675623</v>
+        <v>0.01750659186384347</v>
       </c>
       <c r="T8">
-        <v>0.07373420263675623</v>
+        <v>0.01750659186384347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>7.404507</v>
       </c>
       <c r="I9">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="J9">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>16.578157</v>
       </c>
       <c r="O9">
-        <v>0.264622264871545</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="P9">
-        <v>0.2646222648715451</v>
+        <v>0.7447810673036616</v>
       </c>
       <c r="Q9">
         <v>13.639231061511</v>
@@ -1004,10 +1004,10 @@
         <v>122.753079553599</v>
       </c>
       <c r="S9">
-        <v>0.02830583383799486</v>
+        <v>0.1038247108610566</v>
       </c>
       <c r="T9">
-        <v>0.02830583383799487</v>
+        <v>0.1038247108610566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>7.404507</v>
       </c>
       <c r="I10">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="J10">
-        <v>0.106966939655419</v>
+        <v>0.1394029942744574</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9618626666666668</v>
+        <v>0.9618626666666666</v>
       </c>
       <c r="N10">
         <v>2.885588</v>
       </c>
       <c r="O10">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="P10">
-        <v>0.04606005553247879</v>
+        <v>0.1296363226888633</v>
       </c>
       <c r="Q10">
         <v>2.374039616124</v>
@@ -1066,10 +1066,10 @@
         <v>21.366356545116</v>
       </c>
       <c r="S10">
-        <v>0.004926903180667907</v>
+        <v>0.01807169154955732</v>
       </c>
       <c r="T10">
-        <v>0.004926903180667907</v>
+        <v>0.01807169154955732</v>
       </c>
     </row>
   </sheetData>
